--- a/prisma/products.xlsx
+++ b/prisma/products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\productionplan\prisma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\max_production\prisma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="443">
   <si>
     <t>description</t>
   </si>
@@ -1344,6 +1344,21 @@
   </si>
   <si>
     <t>M52</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>521-1</t>
+  </si>
+  <si>
+    <t>521-2</t>
+  </si>
+  <si>
+    <t>551/598-1</t>
+  </si>
+  <si>
+    <t>551/598-2</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1941,10 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1989,22 +2007,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K46" totalsRowShown="0" headerRowDxfId="11">
-  <sortState ref="A2:K46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L46" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L46"/>
+  <sortState ref="A2:L46">
     <sortCondition ref="K1:K46"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="description" dataDxfId="10"/>
-    <tableColumn id="2" name=" cicleTime" dataDxfId="9"/>
-    <tableColumn id="3" name=" project" dataDxfId="8"/>
-    <tableColumn id="4" name=" sapCode" dataDxfId="7"/>
-    <tableColumn id="5" name=" partNumber" dataDxfId="6"/>
-    <tableColumn id="6" name=" type" dataDxfId="5"/>
-    <tableColumn id="7" name=" wipSapCode" dataDxfId="4"/>
-    <tableColumn id="8" name="multiple" dataDxfId="3"/>
-    <tableColumn id="9" name="setup" dataDxfId="2"/>
-    <tableColumn id="10" name="quantityPerPackage" dataDxfId="1"/>
-    <tableColumn id="11" name="index" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="description" dataDxfId="11"/>
+    <tableColumn id="2" name=" cicleTime" dataDxfId="10"/>
+    <tableColumn id="3" name=" project" dataDxfId="9"/>
+    <tableColumn id="4" name=" sapCode" dataDxfId="8"/>
+    <tableColumn id="5" name=" partNumber" dataDxfId="7"/>
+    <tableColumn id="6" name=" type" dataDxfId="6"/>
+    <tableColumn id="7" name=" wipSapCode" dataDxfId="5"/>
+    <tableColumn id="8" name="multiple" dataDxfId="4"/>
+    <tableColumn id="9" name="setup" dataDxfId="3"/>
+    <tableColumn id="10" name="quantityPerPackage" dataDxfId="2"/>
+    <tableColumn id="11" name="index" dataDxfId="1"/>
+    <tableColumn id="12" name="line" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2273,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,9 +2311,10 @@
     <col min="9" max="9" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2327,8 +2348,11 @@
       <c r="K1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>73</v>
       </c>
@@ -2357,8 +2381,11 @@
       <c r="K2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>199</v>
       </c>
@@ -2387,8 +2414,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>74</v>
       </c>
@@ -2417,8 +2447,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -2447,8 +2480,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>70</v>
       </c>
@@ -2480,8 +2516,11 @@
       <c r="K6" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
@@ -2513,8 +2552,11 @@
       <c r="K7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
@@ -2546,8 +2588,11 @@
       <c r="K8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>72</v>
       </c>
@@ -2579,8 +2624,11 @@
       <c r="K9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>67</v>
       </c>
@@ -2612,8 +2660,11 @@
       <c r="K10" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>65</v>
       </c>
@@ -2645,8 +2696,11 @@
       <c r="K11" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
@@ -2678,8 +2732,11 @@
       <c r="K12" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>68</v>
       </c>
@@ -2711,8 +2768,11 @@
       <c r="K13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>63</v>
       </c>
@@ -2744,8 +2804,11 @@
       <c r="K14" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
@@ -2777,8 +2840,11 @@
       <c r="K15" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>64</v>
       </c>
@@ -2810,8 +2876,11 @@
       <c r="K16" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
@@ -2843,8 +2912,11 @@
       <c r="K17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -2876,8 +2948,11 @@
       <c r="K18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>12</v>
       </c>
@@ -2909,8 +2984,11 @@
       <c r="K19" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
@@ -2942,8 +3020,11 @@
       <c r="K20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
@@ -2975,8 +3056,11 @@
       <c r="K21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>18</v>
       </c>
@@ -3008,8 +3092,11 @@
       <c r="K22" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -3041,8 +3128,11 @@
       <c r="K23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>431</v>
       </c>
@@ -3074,8 +3164,11 @@
       <c r="K24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
@@ -3107,8 +3200,11 @@
       <c r="K25" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
@@ -3140,8 +3236,11 @@
       <c r="K26" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
@@ -3173,8 +3272,11 @@
       <c r="K27" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
@@ -3206,8 +3308,11 @@
       <c r="K28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
@@ -3239,8 +3344,11 @@
       <c r="K29" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>43</v>
       </c>
@@ -3274,28 +3382,31 @@
       <c r="K30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>32</v>
+        <v>434</v>
       </c>
       <c r="B31" s="1">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1">
-        <v>521</v>
+        <v>226</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1">
-        <v>1002672560</v>
+        <v>1002676940</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
@@ -3309,28 +3420,31 @@
       <c r="K31" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>37</v>
+      <c r="L31" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="B32" s="1">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1">
-        <v>521</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1002724870</v>
+        <v>291</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1002795200</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1">
         <v>1</v>
@@ -3344,28 +3458,31 @@
       <c r="K32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>39</v>
+      <c r="L32" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="B33" s="1">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1">
-        <v>521</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1002724890</v>
+        <v>291</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1002829160</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -3379,28 +3496,31 @@
       <c r="K33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>53</v>
+      <c r="L33" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B34" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1">
-        <v>598</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="1">
-        <v>609589620</v>
+        <v>291</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1002829180</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -3414,28 +3534,31 @@
       <c r="K34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
-        <v>598</v>
+        <v>521</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1">
-        <v>609734340</v>
+        <v>1002680180</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -3449,10 +3572,13 @@
       <c r="K35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>113</v>
@@ -3461,16 +3587,16 @@
         <v>521</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E36" s="1">
-        <v>1002680180</v>
+        <v>1002672560</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -3484,28 +3610,31 @@
       <c r="K36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1">
-        <v>226</v>
+        <v>521</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1">
-        <v>1002676940</v>
+        <v>1002724890</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -3519,28 +3648,31 @@
       <c r="K37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C38" s="1">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1">
-        <v>609807640</v>
+        <v>1002724870</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -3554,10 +3686,13 @@
       <c r="K38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>49</v>
+        <v>429</v>
       </c>
       <c r="B39" s="1">
         <v>120</v>
@@ -3566,16 +3701,16 @@
         <v>551</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="E39" s="1">
-        <v>609827540</v>
+        <v>609959280</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>29</v>
+        <v>430</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -3589,28 +3724,31 @@
       <c r="K39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>435</v>
+      <c r="L39" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B40" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1">
-        <v>291</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1002795200</v>
+        <v>551</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1">
+        <v>609807640</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1">
         <v>1</v>
@@ -3624,28 +3762,31 @@
       <c r="K40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
-        <v>436</v>
+      <c r="L40" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1">
-        <v>291</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1002829160</v>
+        <v>551</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1">
+        <v>609827540</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
@@ -3659,28 +3800,31 @@
       <c r="K41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>59</v>
+      <c r="L41" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="B42" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1">
-        <v>291</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1002829180</v>
+        <v>551</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="1">
+        <v>609943380</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -3694,8 +3838,11 @@
       <c r="K42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>47</v>
       </c>
@@ -3729,28 +3876,31 @@
       <c r="K43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1">
         <v>120</v>
       </c>
       <c r="C44" s="1">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>426</v>
+        <v>56</v>
       </c>
       <c r="E44" s="1">
-        <v>609943380</v>
+        <v>609734340</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H44" s="1">
         <v>1</v>
@@ -3764,28 +3914,31 @@
       <c r="K44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>429</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
         <v>120</v>
       </c>
       <c r="C45" s="1">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>428</v>
+        <v>54</v>
       </c>
       <c r="E45" s="1">
-        <v>609959280</v>
+        <v>609589620</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>430</v>
+        <v>15</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -3799,8 +3952,11 @@
       <c r="K45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>57</v>
       </c>
@@ -3833,6 +3989,9 @@
       </c>
       <c r="K46" s="1">
         <v>5</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3851,8 +4010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/prisma/products.xlsx
+++ b/prisma/products.xlsx
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
